--- a/Deskripsi.xlsx
+++ b/Deskripsi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptrayoga/Library/CloudStorage/GoogleDrive-hitmeup.yogaputra@gmail.com/My Drive/4. Improvement/9. BPS Code/18. SNLIK2026/SNLIK2026/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{508F4584-D523-834F-BCE7-8F2B13F7924E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82BD25E-C748-6148-8278-DD8ECDD7C164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1374,7 +1374,7 @@
   <dimension ref="A1:X984"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Deskripsi.xlsx
+++ b/Deskripsi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptrayoga/Library/CloudStorage/GoogleDrive-hitmeup.yogaputra@gmail.com/My Drive/4. Improvement/9. BPS Code/18. SNLIK2026/SNLIK2026/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0EE815-3C4A-1C4F-BAEC-9689943EFF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F310BD4-F330-5A4C-8F54-4FFF29F572B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="251">
   <si>
     <t>Blok</t>
   </si>
@@ -788,6 +788,9 @@
   </si>
   <si>
     <t>Anomali</t>
+  </si>
+  <si>
+    <t>Deskripsi</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1199,7 @@
   <dimension ref="A1:U984"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1214,8 +1217,8 @@
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
+      <c r="B1" s="16" t="s">
+        <v>250</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>2</v>

--- a/Deskripsi.xlsx
+++ b/Deskripsi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptrayoga/Library/CloudStorage/GoogleDrive-hitmeup.yogaputra@gmail.com/My Drive/4. Improvement/9. BPS Code/18. SNLIK2026/SNLIK2026/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F310BD4-F330-5A4C-8F54-4FFF29F572B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBEFCA7-F2D2-5E47-B31D-6506636B600C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -595,202 +595,202 @@
     <t>(R407&lt;17) &amp; (R412=2 | R412=3 | R412=5 | R412=6 | R412=8)</t>
   </si>
   <si>
-    <t>Anomali 1</t>
-  </si>
-  <si>
-    <t>Anomali 2</t>
-  </si>
-  <si>
-    <t>Anomali 3</t>
-  </si>
-  <si>
-    <t>Anomali 4</t>
-  </si>
-  <si>
-    <t>Anomali 5</t>
-  </si>
-  <si>
-    <t>Anomali 6</t>
-  </si>
-  <si>
-    <t>Anomali 7</t>
-  </si>
-  <si>
-    <t>Anomali 8</t>
-  </si>
-  <si>
-    <t>Anomali 9</t>
-  </si>
-  <si>
-    <t>Anomali 10</t>
-  </si>
-  <si>
-    <t>Anomali 11</t>
-  </si>
-  <si>
-    <t>Anomali 12</t>
-  </si>
-  <si>
-    <t>Anomali 13</t>
-  </si>
-  <si>
-    <t>Anomali 14</t>
-  </si>
-  <si>
-    <t>Anomali 15</t>
-  </si>
-  <si>
-    <t>Anomali 16</t>
-  </si>
-  <si>
-    <t>Anomali 17</t>
-  </si>
-  <si>
-    <t>Anomali 18</t>
-  </si>
-  <si>
-    <t>Anomali 19</t>
-  </si>
-  <si>
-    <t>Anomali 20</t>
-  </si>
-  <si>
-    <t>Anomali 21</t>
-  </si>
-  <si>
-    <t>Anomali 22</t>
-  </si>
-  <si>
-    <t>Anomali 23</t>
-  </si>
-  <si>
-    <t>Anomali 24</t>
-  </si>
-  <si>
-    <t>Anomali 25</t>
-  </si>
-  <si>
-    <t>Anomali 26</t>
-  </si>
-  <si>
-    <t>Anomali 27</t>
-  </si>
-  <si>
-    <t>Anomali 28</t>
-  </si>
-  <si>
-    <t>Anomali 29</t>
-  </si>
-  <si>
-    <t>Anomali 30</t>
-  </si>
-  <si>
-    <t>Anomali 31</t>
-  </si>
-  <si>
-    <t>Anomali 32</t>
-  </si>
-  <si>
-    <t>Anomali 33</t>
-  </si>
-  <si>
-    <t>Anomali 34</t>
-  </si>
-  <si>
-    <t>Anomali 35</t>
-  </si>
-  <si>
-    <t>Anomali 36</t>
-  </si>
-  <si>
-    <t>Anomali 37</t>
-  </si>
-  <si>
-    <t>Anomali 38</t>
-  </si>
-  <si>
-    <t>Anomali 39</t>
-  </si>
-  <si>
-    <t>Anomali 40</t>
-  </si>
-  <si>
-    <t>Anomali 41</t>
-  </si>
-  <si>
-    <t>Anomali 42</t>
-  </si>
-  <si>
-    <t>Anomali 43</t>
-  </si>
-  <si>
-    <t>Anomali 44</t>
-  </si>
-  <si>
-    <t>Anomali 45</t>
-  </si>
-  <si>
-    <t>Anomali 46</t>
-  </si>
-  <si>
-    <t>Anomali 47</t>
-  </si>
-  <si>
-    <t>Anomali 48</t>
-  </si>
-  <si>
-    <t>Anomali 49</t>
-  </si>
-  <si>
-    <t>Anomali 50</t>
-  </si>
-  <si>
-    <t>Anomali 51</t>
-  </si>
-  <si>
-    <t>Anomali 52</t>
-  </si>
-  <si>
-    <t>Anomali 53</t>
-  </si>
-  <si>
-    <t>Anomali 54</t>
-  </si>
-  <si>
-    <t>Anomali 55</t>
-  </si>
-  <si>
-    <t>Anomali 56</t>
-  </si>
-  <si>
-    <t>Anomali 57</t>
-  </si>
-  <si>
-    <t>Anomali 58</t>
-  </si>
-  <si>
-    <t>Anomali 59</t>
-  </si>
-  <si>
-    <t>Anomali 60</t>
-  </si>
-  <si>
-    <t>Anomali 61</t>
-  </si>
-  <si>
-    <t>Anomali 62</t>
-  </si>
-  <si>
-    <t>Anomali 63</t>
-  </si>
-  <si>
-    <t>Anomali 64</t>
-  </si>
-  <si>
     <t>Anomali</t>
   </si>
   <si>
     <t>Deskripsi</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>A24</t>
+  </si>
+  <si>
+    <t>A25</t>
+  </si>
+  <si>
+    <t>A26</t>
+  </si>
+  <si>
+    <t>A27</t>
+  </si>
+  <si>
+    <t>A28</t>
+  </si>
+  <si>
+    <t>A29</t>
+  </si>
+  <si>
+    <t>A30</t>
+  </si>
+  <si>
+    <t>A31</t>
+  </si>
+  <si>
+    <t>A32</t>
+  </si>
+  <si>
+    <t>A33</t>
+  </si>
+  <si>
+    <t>A34</t>
+  </si>
+  <si>
+    <t>A35</t>
+  </si>
+  <si>
+    <t>A36</t>
+  </si>
+  <si>
+    <t>A37</t>
+  </si>
+  <si>
+    <t>A38</t>
+  </si>
+  <si>
+    <t>A39</t>
+  </si>
+  <si>
+    <t>A40</t>
+  </si>
+  <si>
+    <t>A41</t>
+  </si>
+  <si>
+    <t>A42</t>
+  </si>
+  <si>
+    <t>A43</t>
+  </si>
+  <si>
+    <t>A44</t>
+  </si>
+  <si>
+    <t>A45</t>
+  </si>
+  <si>
+    <t>A46</t>
+  </si>
+  <si>
+    <t>A47</t>
+  </si>
+  <si>
+    <t>A48</t>
+  </si>
+  <si>
+    <t>A49</t>
+  </si>
+  <si>
+    <t>A50</t>
+  </si>
+  <si>
+    <t>A51</t>
+  </si>
+  <si>
+    <t>A52</t>
+  </si>
+  <si>
+    <t>A53</t>
+  </si>
+  <si>
+    <t>A54</t>
+  </si>
+  <si>
+    <t>A55</t>
+  </si>
+  <si>
+    <t>A56</t>
+  </si>
+  <si>
+    <t>A57</t>
+  </si>
+  <si>
+    <t>A58</t>
+  </si>
+  <si>
+    <t>A59</t>
+  </si>
+  <si>
+    <t>A60</t>
+  </si>
+  <si>
+    <t>A61</t>
+  </si>
+  <si>
+    <t>A62</t>
+  </si>
+  <si>
+    <t>A63</t>
+  </si>
+  <si>
+    <t>A64</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1199,7 @@
   <dimension ref="A1:U984"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>2</v>
@@ -1233,7 +1233,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -1256,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -1293,7 +1293,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1330,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1367,7 +1367,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -1404,7 +1404,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1441,7 +1441,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1478,7 +1478,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1515,7 +1515,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1552,7 +1552,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1589,7 +1589,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1626,7 +1626,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1700,7 +1700,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1737,7 +1737,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1774,7 +1774,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1811,7 +1811,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1848,7 +1848,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1885,7 +1885,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -1922,7 +1922,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1959,7 +1959,7 @@
         <v>20</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -1996,7 +1996,7 @@
         <v>21</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -2033,7 +2033,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -2070,7 +2070,7 @@
         <v>23</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -2107,7 +2107,7 @@
         <v>24</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -2144,7 +2144,7 @@
         <v>25</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -2181,7 +2181,7 @@
         <v>26</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -2218,7 +2218,7 @@
         <v>27</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -2255,7 +2255,7 @@
         <v>28</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -2292,7 +2292,7 @@
         <v>29</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -2329,7 +2329,7 @@
         <v>30</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -2366,7 +2366,7 @@
         <v>31</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -2403,7 +2403,7 @@
         <v>32</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -2440,7 +2440,7 @@
         <v>33</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -2477,9 +2477,9 @@
         <v>34</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="H35" s="7"/>
+        <v>220</v>
+      </c>
+      <c r="H35" s="4"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -2514,9 +2514,9 @@
         <v>35</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="H36" s="7"/>
+        <v>221</v>
+      </c>
+      <c r="H36" s="4"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -2551,7 +2551,7 @@
         <v>36</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2588,7 +2588,7 @@
         <v>37</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -2625,7 +2625,7 @@
         <v>38</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -2662,7 +2662,7 @@
         <v>39</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -2699,7 +2699,7 @@
         <v>40</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -2736,7 +2736,7 @@
         <v>41</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -2773,7 +2773,7 @@
         <v>42</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -2810,7 +2810,7 @@
         <v>43</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -2847,7 +2847,7 @@
         <v>44</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -2884,9 +2884,9 @@
         <v>45</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="H46" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="H46" s="4"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
@@ -2921,9 +2921,9 @@
         <v>46</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="H47" s="7"/>
+        <v>232</v>
+      </c>
+      <c r="H47" s="4"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
@@ -2958,7 +2958,7 @@
         <v>47</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -2995,7 +2995,7 @@
         <v>48</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -3032,7 +3032,7 @@
         <v>49</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -3069,7 +3069,7 @@
         <v>50</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -3106,7 +3106,7 @@
         <v>51</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -3143,7 +3143,7 @@
         <v>52</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -3180,9 +3180,9 @@
         <v>53</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="H54" s="7"/>
+        <v>239</v>
+      </c>
+      <c r="H54" s="4"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -3217,7 +3217,7 @@
         <v>54</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
@@ -3254,7 +3254,7 @@
         <v>55</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
@@ -3291,9 +3291,9 @@
         <v>56</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="H57" s="7"/>
+        <v>242</v>
+      </c>
+      <c r="H57" s="4"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
@@ -3328,9 +3328,9 @@
         <v>57</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="H58" s="7"/>
+        <v>243</v>
+      </c>
+      <c r="H58" s="4"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
@@ -3365,7 +3365,7 @@
         <v>58</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -3402,7 +3402,7 @@
         <v>59</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -3439,7 +3439,7 @@
         <v>60</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
@@ -3476,7 +3476,7 @@
         <v>61</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -3513,9 +3513,9 @@
         <v>62</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="H63" s="7"/>
+        <v>248</v>
+      </c>
+      <c r="H63" s="4"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
@@ -3550,9 +3550,9 @@
         <v>63</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="H64" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="H64" s="4"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
@@ -3585,7 +3585,7 @@
         <v>64</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>

--- a/Deskripsi.xlsx
+++ b/Deskripsi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptrayoga/Library/CloudStorage/GoogleDrive-hitmeup.yogaputra@gmail.com/My Drive/4. Improvement/9. BPS Code/18. SNLIK2026/SNLIK2026/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBEFCA7-F2D2-5E47-B31D-6506636B600C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9567EF20-0E42-BD40-8476-76DADABF2915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="264">
   <si>
     <t>Blok</t>
   </si>
@@ -791,6 +791,52 @@
   </si>
   <si>
     <t>A64</t>
+  </si>
+  <si>
+    <t>Memiliki akun produk/layanan jasa keuangan 
+Perbankan akan tetapi tidak mengetahui jasa keuangan
+penyelenggaran jasa sistem pembayaran</t>
+  </si>
+  <si>
+    <t>504A | 504B = 1  &amp; 1503 = 5</t>
+  </si>
+  <si>
+    <t>Memiliki akun produk/layanan jasa keuangan 
+Perbankan akan tetapi tidak memiliki akun jasa keuangan
+penyelenggaran jasa sistem pembayaran</t>
+  </si>
+  <si>
+    <t>504A | 504B =  1  &amp; 1504 = 5</t>
+  </si>
+  <si>
+    <t>Memiliki akun produk/layanan jasa keuangan 
+Perbankan akan tetapi tidak menggunakan jasa keuangan
+penyelenggaran jasa sistem pembayaran</t>
+  </si>
+  <si>
+    <t>504A | 504B = 1  &amp; 1505 = 5</t>
+  </si>
+  <si>
+    <t>Memiliki akun BPJS akan tetapi tidak memiliki akun jasa 
+keuangan perbankan</t>
+  </si>
+  <si>
+    <t>703 = 1 &amp; (504A = 5 | 505B = 5)</t>
+  </si>
+  <si>
+    <t>PROV_01</t>
+  </si>
+  <si>
+    <t>PROV_02</t>
+  </si>
+  <si>
+    <t>PROV_03</t>
+  </si>
+  <si>
+    <t>PROV_04</t>
+  </si>
+  <si>
+    <t>Provinsi</t>
   </si>
 </sst>
 </file>
@@ -809,11 +855,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -825,6 +873,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <strike/>
@@ -836,11 +885,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1198,8 +1249,8 @@
   </sheetPr>
   <dimension ref="A1:U984"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3602,8 +3653,22 @@
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="G66" s="20"/>
+    <row r="66" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+      <c r="A66" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D66" s="18"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="19" t="s">
+        <v>259</v>
+      </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -3619,8 +3684,22 @@
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="G67" s="20"/>
+    <row r="67" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="A67" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="D67" s="18"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="19" t="s">
+        <v>260</v>
+      </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -3636,8 +3715,22 @@
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="G68" s="20"/>
+    <row r="68" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="A68" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D68" s="18"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="19" t="s">
+        <v>261</v>
+      </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -3653,8 +3746,22 @@
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="G69" s="21"/>
+    <row r="69" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+      <c r="A69" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D69" s="18"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="19" t="s">
+        <v>262</v>
+      </c>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
